--- a/研究计算/矩形立坑出口計算/L7.9.xlsx
+++ b/研究计算/矩形立坑出口計算/L7.9.xlsx
@@ -2093,8 +2093,12 @@
       <c r="B9" t="n">
         <v>0</v>
       </c>
-      <c r="C9" s="1" t="n"/>
-      <c r="D9" s="4" t="n"/>
+      <c r="C9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="4" t="n">
+        <v>65000</v>
+      </c>
       <c r="E9" t="n">
         <v>1.2</v>
       </c>
@@ -3407,6 +3411,12 @@
       <c r="B8" t="n">
         <v>0</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>80000</v>
+      </c>
       <c r="E8" t="n">
         <v>7</v>
       </c>
@@ -3421,6 +3431,12 @@
       <c r="B9" t="n">
         <v>50000</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D9" t="n">
+        <v>90000</v>
+      </c>
       <c r="E9" t="n">
         <v>8</v>
       </c>
@@ -3435,6 +3451,12 @@
       <c r="B10" t="n">
         <v>55000</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D10" t="n">
+        <v>100000</v>
+      </c>
       <c r="E10" t="n">
         <v>9</v>
       </c>
@@ -3443,27 +3465,75 @@
       </c>
     </row>
     <row customHeight="1" ht="15" r="11" s="5" spans="1:6">
-      <c r="D11" s="4" t="n"/>
+      <c r="A11" t="n">
+        <v>0</v>
+      </c>
+      <c r="B11" t="n">
+        <v>110000</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>70000</v>
+      </c>
       <c r="F11" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="12" s="5" spans="1:6">
-      <c r="B12" s="4" t="n"/>
-      <c r="D12" s="4" t="n"/>
+      <c r="A12" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="4" t="n">
+        <v>75000</v>
+      </c>
       <c r="F12" s="4" t="n"/>
     </row>
     <row customHeight="1" ht="15" r="13" s="5" spans="1:6">
-      <c r="B13" s="4" t="n"/>
-      <c r="D13" s="4" t="n"/>
+      <c r="A13" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4" t="n">
+        <v>115000</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="14" s="5" spans="1:6">
       <c r="B14" s="4" t="n"/>
-      <c r="D14" s="4" t="n"/>
+      <c r="C14" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>60000</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="15" s="5" spans="1:6">
       <c r="B15" s="4" t="n"/>
+      <c r="C15" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="D15" t="n">
+        <v>57000</v>
+      </c>
     </row>
     <row customHeight="1" ht="15" r="16" s="5" spans="1:6">
       <c r="B16" s="4" t="n"/>
+      <c r="C16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D16" t="n">
+        <v>65000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3477,7 +3547,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:J27"/>
@@ -3523,6 +3593,12 @@
       <c r="D3" s="4" t="n">
         <v>120000</v>
       </c>
+      <c r="E3" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="n">
@@ -3566,22 +3642,136 @@
         <v>180000</v>
       </c>
     </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="n">
+        <v>1</v>
+      </c>
+      <c r="B7" t="n">
+        <v>60000</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="n">
+        <v>1</v>
+      </c>
+      <c r="B8" t="n">
+        <v>55000</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D8" t="n">
+        <v>110000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>70000</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+      <c r="D9" t="n">
+        <v>95000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>65000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D10" t="n">
+        <v>80000</v>
+      </c>
+    </row>
     <row r="11" spans="1:6">
-      <c r="B11" s="4" t="n"/>
+      <c r="A11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B11" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="D11" t="n">
+        <v>90000</v>
+      </c>
       <c r="F11" s="7" t="n"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="B12" s="4" t="n"/>
+      <c r="A12" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B12" s="4" t="n">
+        <v>60000</v>
+      </c>
       <c r="F12" s="4" t="n"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="B13" s="4" t="n"/>
+      <c r="A13" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B13" s="4" t="n">
+        <v>70000</v>
+      </c>
       <c r="C13" s="6" t="n"/>
       <c r="D13" s="7" t="n"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="B14" s="8" t="n"/>
+      <c r="A14" t="n">
+        <v>1</v>
+      </c>
+      <c r="B14" s="8" t="n">
+        <v>70000</v>
+      </c>
       <c r="D14" s="4" t="n"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B16" t="n">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="B18" t="n">
+        <v>95000</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -3743,6 +3933,12 @@
       </c>
     </row>
     <row r="9" spans="1:6">
+      <c r="A9" t="n">
+        <v>0</v>
+      </c>
+      <c r="B9" t="n">
+        <v>110000</v>
+      </c>
       <c r="C9" t="n">
         <v>1</v>
       </c>
@@ -3751,11 +3947,27 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="D10" s="4" t="n"/>
+      <c r="A10" t="n">
+        <v>0</v>
+      </c>
+      <c r="B10" t="n">
+        <v>115000</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" s="4" t="n">
+        <v>95000</v>
+      </c>
       <c r="F10" s="4" t="n"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="D11" s="4" t="n"/>
+      <c r="C11" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="4" t="n">
+        <v>100000</v>
+      </c>
       <c r="F11" s="4" t="n"/>
     </row>
     <row r="12" spans="1:6">
